--- a/hardware/BOM.xlsx
+++ b/hardware/BOM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eagle\FlukeNic\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.0.114\momose\FlukeNIC\hardware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C20BF76A-523C-4E2C-A178-F0165E720F5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85801760-D399-46A3-9182-E214F00E0CEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1740" yWindow="720" windowWidth="21600" windowHeight="11535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1005" yWindow="825" windowWidth="21600" windowHeight="11535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FlukeNIC_BOM" sheetId="1" r:id="rId1"/>
@@ -97,259 +97,261 @@
     <t>U2</t>
   </si>
   <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>CN1</t>
+  </si>
+  <si>
+    <t>RD3.9</t>
+  </si>
+  <si>
+    <t>ZD1, ZD2</t>
+  </si>
+  <si>
+    <t>UNITB</t>
+  </si>
+  <si>
+    <t>U3</t>
+  </si>
+  <si>
+    <t>Ceramic cap</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1F</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Electrolytic  cap</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>4700/16V</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10/16V</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>PS-10PE-D4T2-M1E</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Pin header w/Lock</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>BNC receptacle</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Low VF generic rect 1A</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Generic rect 1A</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Low IR recommended (for RTC backup)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>MF-RX040/72-0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Resettable fuse 0.4A</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Generic resistor</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Zener 3.9V</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>UNIT A</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>UNIT B</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>C1, C2, C3, C4, C5, C6, C7</t>
+  </si>
+  <si>
+    <t>C8, C9</t>
+  </si>
+  <si>
+    <t>5077CR-16-SMC2-BK-TR</t>
+  </si>
+  <si>
+    <t>USB-C jack</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CN2</t>
+  </si>
+  <si>
+    <t>CON_5P</t>
+  </si>
+  <si>
+    <t>Pin header single line 100mil</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CN3</t>
+  </si>
+  <si>
+    <t>CON_3P</t>
+  </si>
+  <si>
+    <t>CN4</t>
+  </si>
+  <si>
+    <t>DM3AT-SF-PEJM5</t>
+  </si>
+  <si>
+    <t>CN5</t>
+  </si>
+  <si>
+    <t>CON_6P</t>
+  </si>
+  <si>
+    <t>D1, D2, D3, D4</t>
+  </si>
+  <si>
+    <t>1SS355</t>
+  </si>
+  <si>
+    <t>Generic SW diode  SOD-323</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LED1</t>
+  </si>
+  <si>
+    <t>PG1112H-TR</t>
+  </si>
+  <si>
+    <t>Generic LED 2125</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Q1, Q2</t>
+  </si>
+  <si>
+    <t>2SC2712</t>
+  </si>
+  <si>
+    <t>Generic NPN SC-59</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>R1, R4, R5, R6, R7, R8, R9, R10, R14</t>
+  </si>
+  <si>
+    <t>10k</t>
+  </si>
+  <si>
+    <t>Generic resistor 2012</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>R11, R12, R13</t>
+  </si>
+  <si>
+    <t>R15, R16</t>
+  </si>
+  <si>
+    <t>3.3k</t>
+  </si>
+  <si>
+    <t>R17, R18</t>
+  </si>
+  <si>
+    <t>R2, R3</t>
+  </si>
+  <si>
+    <t>5.1k</t>
+  </si>
+  <si>
+    <t>CH340K</t>
+  </si>
+  <si>
+    <t>PCF2129</t>
+  </si>
+  <si>
+    <t>RTC (optional)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>74ACT14</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Hex schmitt trigger 5V, TTL input, TSSOP14</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>U5</t>
+  </si>
+  <si>
+    <t>74LCX14</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Hex schmitt trigger 3.3V, 5V tolerant, TSSOP14</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NJM2845DL1-33</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1S4</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>microSD card socket</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>EDLC 1F/5.5V SE-5R5-D105VY (for RTC backup, optional)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Ceramic cap 2012</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ESP-WROOM-32E</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>USB-Serial converter, Backside pad soldering is not required</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Use last letter 'E', Flash &gt;= 4M, Backside pad soldering is not required</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>NJM7805SDL1</t>
-  </si>
-  <si>
-    <t>U1</t>
-  </si>
-  <si>
-    <t>CN1</t>
-  </si>
-  <si>
-    <t>RD3.9</t>
-  </si>
-  <si>
-    <t>ZD1, ZD2</t>
-  </si>
-  <si>
-    <t>UNITB</t>
-  </si>
-  <si>
-    <t>U3</t>
-  </si>
-  <si>
-    <t>Ceramic cap</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1F</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Electrolytic  cap</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>4700/16V</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>10/16V</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>PS-10PE-D4T2-M1E</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Pin header w/Lock</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>BNC receptacle</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Low VF generic rect 1A</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Generic rect 1A</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Low IR recommended (for RTC backup)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>MF-RX040/72-0</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Resettable fuse 0.4A</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Generic resistor</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Voltage reg 5V</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Zener 3.9V</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>UNIT A</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>UNIT B</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>C1, C2, C3, C4, C5, C6, C7</t>
-  </si>
-  <si>
-    <t>C8, C9</t>
-  </si>
-  <si>
-    <t>5077CR-16-SMC2-BK-TR</t>
-  </si>
-  <si>
-    <t>USB-C jack</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CN2</t>
-  </si>
-  <si>
-    <t>CON_5P</t>
-  </si>
-  <si>
-    <t>Pin header single line 100mil</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CN3</t>
-  </si>
-  <si>
-    <t>CON_3P</t>
-  </si>
-  <si>
-    <t>CN4</t>
-  </si>
-  <si>
-    <t>DM3AT-SF-PEJM5</t>
-  </si>
-  <si>
-    <t>CN5</t>
-  </si>
-  <si>
-    <t>CON_6P</t>
-  </si>
-  <si>
-    <t>D1, D2, D3, D4</t>
-  </si>
-  <si>
-    <t>1SS355</t>
-  </si>
-  <si>
-    <t>Generic SW diode  SOD-323</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LED1</t>
-  </si>
-  <si>
-    <t>PG1112H-TR</t>
-  </si>
-  <si>
-    <t>Generic LED 2125</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Q1, Q2</t>
-  </si>
-  <si>
-    <t>2SC2712</t>
-  </si>
-  <si>
-    <t>Generic NPN SC-59</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>R1, R4, R5, R6, R7, R8, R9, R10, R14</t>
-  </si>
-  <si>
-    <t>10k</t>
-  </si>
-  <si>
-    <t>Generic resistor 2012</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>R11, R12, R13</t>
-  </si>
-  <si>
-    <t>R15, R16</t>
-  </si>
-  <si>
-    <t>3.3k</t>
-  </si>
-  <si>
-    <t>R17, R18</t>
-  </si>
-  <si>
-    <t>R2, R3</t>
-  </si>
-  <si>
-    <t>5.1k</t>
-  </si>
-  <si>
-    <t>CH340K</t>
-  </si>
-  <si>
-    <t>ESP32-WROOM</t>
-  </si>
-  <si>
-    <t>PCF2129</t>
-  </si>
-  <si>
-    <t>RTC (optional)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>74ACT14</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Hex schmitt trigger 5V, TTL input, TSSOP14</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>U5</t>
-  </si>
-  <si>
-    <t>74LCX14</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Hex schmitt trigger 3.3V, 5V tolerant, TSSOP14</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>NJM2845DL1-33</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Voltage reg 3.3V, Low drop</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1S4</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>microSD card socket</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Flash &gt;= 4M, Backside pad soldering is not must.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>USB-Serial converter, Backside pad soldering is not must.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>EDLC 1F/5.5V SE-5R5-D105VY (for RTC backup, optional)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Ceramic cap 2012</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Voltage reg 5V, Package TO-252-3</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Voltage reg 3.3V, Low drop, Package TO-252-3</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -717,7 +719,7 @@
   <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -734,7 +736,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
@@ -761,10 +763,10 @@
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F3" s="1"/>
       <c r="I3" s="1"/>
@@ -777,10 +779,10 @@
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F4" s="1"/>
       <c r="I4" s="1"/>
@@ -793,10 +795,10 @@
         <v>3</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F5" s="1"/>
       <c r="I5" s="1"/>
@@ -812,23 +814,23 @@
         <v>0.1</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F6" s="1"/>
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="F7" s="1"/>
       <c r="H7" s="1"/>
@@ -845,7 +847,7 @@
         <v>19</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F8" s="1"/>
       <c r="H8" s="1"/>
@@ -859,10 +861,10 @@
         <v>2</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F9" s="1"/>
       <c r="I9" s="1"/>
@@ -878,7 +880,7 @@
         <v>9</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F10" s="1"/>
       <c r="I10" s="1"/>
@@ -894,7 +896,7 @@
         <v>11</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F11" s="1"/>
       <c r="I11" s="1"/>
@@ -907,10 +909,10 @@
         <v>1</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="F12" s="1"/>
       <c r="H12" s="1"/>
@@ -927,7 +929,7 @@
         <v>14</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F13" s="1"/>
       <c r="I13" s="1"/>
@@ -943,7 +945,7 @@
         <v>16</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F14" s="1"/>
       <c r="I14" s="1"/>
@@ -959,23 +961,23 @@
         <v>5</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F15" s="1"/>
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B16" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" s="1">
         <v>1</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>25</v>
+        <v>95</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="F16" s="1"/>
       <c r="H16" s="1"/>
@@ -989,10 +991,10 @@
         <v>1</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="F17" s="1"/>
       <c r="H17" s="1"/>
@@ -1000,13 +1002,13 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B18" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C18" s="1">
         <v>1</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -1030,16 +1032,16 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B20" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C20" s="1">
         <v>2</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F20" s="1"/>
       <c r="H20" s="1"/>
@@ -1047,7 +1049,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
@@ -1066,7 +1068,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B24" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C24" s="1">
         <v>7</v>
@@ -1075,12 +1077,12 @@
         <v>0.1</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B25" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C25" s="1">
         <v>2</v>
@@ -1089,138 +1091,138 @@
         <v>0.01</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B26" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C26" s="1">
         <v>1</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B27" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="C27" s="1">
-        <v>1</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B28" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C28" s="1">
         <v>1</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B29" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C29" s="1">
         <v>1</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B30" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C30" s="1">
         <v>1</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B31" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C31" s="1">
         <v>4</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B32" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" s="1">
+        <v>1</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="C32" s="1">
-        <v>1</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B33" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C33" s="1">
         <v>2</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B34" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C34" s="1">
         <v>9</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B35" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C35" s="1">
         <v>3</v>
@@ -1229,26 +1231,26 @@
         <v>470</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B36" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C36" s="1">
         <v>2</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B37" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C37" s="1">
         <v>2</v>
@@ -1257,35 +1259,35 @@
         <v>14</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B38" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C38" s="1">
         <v>2</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B39" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C39" s="1">
         <v>1</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.15">
@@ -1296,7 +1298,7 @@
         <v>1</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>94</v>
@@ -1304,16 +1306,16 @@
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B41" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C41" s="1">
         <v>1</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.15">
@@ -1324,24 +1326,24 @@
         <v>1</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B43" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C43" s="1">
         <v>1</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
